--- a/biology/Histoire de la zoologie et de la botanique/François_Victor_Masséna/François_Victor_Masséna.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Victor_Masséna/François_Victor_Masséna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Victor_Mass%C3%A9na</t>
+          <t>François_Victor_Masséna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Victor Masséna, deuxième duc de Rivoli et troisième prince d'Essling est un ornithologue amateur français. Il est né en Antibes le 2 avril 1799 et mort le 16 avril 1863. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Victor_Mass%C3%A9na</t>
+          <t>François_Victor_Masséna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils d'André Masséna, maréchal d'Empire.
 Il a accumulé une collection de 12 500 specimens d'oiseaux, qu'il a vendue au docteur Thomas Bellerby Wilson en 1846 qui l'a lui-même offerte à l'Académie de Sciences naturelles de Philadelphie.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Victor_Mass%C3%A9na</t>
+          <t>François_Victor_Masséna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 08/09/07).</t>
         </is>
